--- a/RASTA/sentiment/BERT_classification_report.xlsx
+++ b/RASTA/sentiment/BERT_classification_report.xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6200787401574803</v>
+        <v>0.6156787762906309</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7208237986270023</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6666666666666667</v>
+        <v>0.6708333333333333</v>
       </c>
       <c r="E2" t="n">
         <v>437</v>
@@ -481,16 +481,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.3167808219178082</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.2605633802816901</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.285935085007728</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>710</v>
       </c>
     </row>
     <row r="4">
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9820458303803449</v>
+        <v>0.8848155156102177</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8487137607186607</v>
+        <v>0.8932664756446992</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9105245865732121</v>
+        <v>0.8890209125475286</v>
       </c>
       <c r="E4" t="n">
-        <v>4898</v>
+        <v>4188</v>
       </c>
     </row>
     <row r="5">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8382380506091847</v>
+        <v>0.7962511715089035</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8382380506091847</v>
+        <v>0.7962511715089035</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8382380506091847</v>
+        <v>0.7962511715089035</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8382380506091847</v>
+        <v>0.7962511715089035</v>
       </c>
     </row>
     <row r="6">
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5340415235126085</v>
+        <v>0.6057583712728856</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5231791864485543</v>
+        <v>0.6302239870631824</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5257304177466263</v>
+        <v>0.6152631102961966</v>
       </c>
       <c r="E6" t="n">
         <v>5335</v>
@@ -557,13 +557,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9523964173667756</v>
+        <v>0.7871740184022944</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8382380506091847</v>
+        <v>0.7962511715089035</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8905497204065466</v>
+        <v>0.790888033509129</v>
       </c>
       <c r="E7" t="n">
         <v>5335</v>
